--- a/selevance/src/test/resources/data/data1.xlsx
+++ b/selevance/src/test/resources/data/data1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
   <si>
     <t>Fname</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Sukumar</t>
   </si>
   <si>
@@ -46,6 +40,18 @@
   </si>
   <si>
     <t xml:space="preserve">Upendra Kishor </t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sukumar1</t>
+  </si>
+  <si>
+    <t>Upendra Kishor 1</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -377,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -402,24 +408,46 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -429,13 +457,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -453,30 +484,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/selevance/src/test/resources/data/data1.xlsx
+++ b/selevance/src/test/resources/data/data1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="13">
   <si>
     <t>Fname</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Upendra Kishore</t>
   </si>
 </sst>
 </file>
@@ -459,9 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -498,10 +499,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -512,7 +513,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
